--- a/Documents/КОП и КУ.xlsx
+++ b/Documents/КОП и КУ.xlsx
@@ -1874,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>

--- a/Documents/КОП и КУ.xlsx
+++ b/Documents/КОП и КУ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>00000000</t>
   </si>
@@ -1430,6 +1430,12 @@
       </rPr>
       <t>11</t>
     </r>
+  </si>
+  <si>
+    <t>Сложение с СF</t>
+  </si>
+  <si>
+    <t>Вычитание с CF</t>
   </si>
 </sst>
 </file>
@@ -1566,17 +1572,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1935,27 +1941,31 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="7" t="s">
@@ -2131,14 +2141,14 @@
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5" ht="18.75">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="D18" s="12"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="7" t="s">
@@ -2318,12 +2328,12 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="7" t="s">
@@ -2334,12 +2344,12 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="7" t="s">

--- a/Documents/КОП и КУ.xlsx
+++ b/Documents/КОП и КУ.xlsx
@@ -632,8 +632,207 @@
     <t>Рег. L&lt;-ШД</t>
   </si>
   <si>
-    <r>
-      <t>[17][16][15][14][13][12][11][10]</t>
+    <t>ШД&lt;-Рег. W</t>
+  </si>
+  <si>
+    <t>Рег. W&lt;-ШД</t>
+  </si>
+  <si>
+    <t>ШД&lt;-Рег. Z</t>
+  </si>
+  <si>
+    <t>Рег. Z&lt;-ШД</t>
+  </si>
+  <si>
+    <t>Ук.Стэка&lt;-ШД</t>
+  </si>
+  <si>
+    <t>ШД&lt;-Ук.Стэка</t>
+  </si>
+  <si>
+    <t>Сч. Ком++</t>
+  </si>
+  <si>
+    <t>Рег. Адр&lt;-Сч. Ком</t>
+  </si>
+  <si>
+    <t>Код F1</t>
+  </si>
+  <si>
+    <t>Код ControlBus</t>
+  </si>
+  <si>
+    <t>Рег. Адр&lt;-В+С</t>
+  </si>
+  <si>
+    <t>Рег. Адр&lt;-D+E</t>
+  </si>
+  <si>
+    <t>Рег. Адр&lt;-H+L</t>
+  </si>
+  <si>
+    <r>
+      <t>[17][16][15][14][13][12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[5][4][3][2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[17][16][15][14][13][12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[5][4][3][2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    [17][16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[11][10][9][8][7][6][5][4][3][2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>Ук.Стэка&lt;-В+С</t>
+  </si>
+  <si>
+    <t>Ук.Стэка&lt;-D+E</t>
+  </si>
+  <si>
+    <t>Ук.Стэка&lt;-H+L</t>
+  </si>
+  <si>
+    <r>
+      <t>[17][16][15][14][13][12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[5][4][3][2]</t>
     </r>
     <r>
       <rPr>
@@ -645,6 +844,122 @@
       </rPr>
       <t>11</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>[17][16][15][14][13][12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[5][4][3][2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    [17][16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[11][10][9][8][7][6][5][4][3][2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <t>Сложение с СF</t>
+  </si>
+  <si>
+    <t>Вычитание с CF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12][11][10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -658,7 +973,117 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12][11][10]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12][11][10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6][5][4][3][2][1][0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[9][8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6][5][4][3][2][1][0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12]</t>
     </r>
     <r>
       <rPr>
@@ -673,6 +1098,15 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[9][8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -683,7 +1117,24 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12][11][10]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12][11][10]</t>
     </r>
     <r>
       <rPr>
@@ -708,7 +1159,66 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12][11][10]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12][11][10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6][5][4][3][2][1][0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12]</t>
     </r>
     <r>
       <rPr>
@@ -723,6 +1233,15 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[9][8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -733,7 +1252,75 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14][13][12]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[9][8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6][5][4][3][2][1][0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14]</t>
     </r>
     <r>
       <rPr>
@@ -752,7 +1339,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>[9][8]</t>
+      <t>[11][10][9][8]</t>
     </r>
     <r>
       <rPr>
@@ -767,7 +1354,24 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14]</t>
     </r>
     <r>
       <rPr>
@@ -786,7 +1390,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>[9][8]</t>
+      <t>[11][10][9][8]</t>
     </r>
     <r>
       <rPr>
@@ -801,7 +1405,126 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[13][12][11][10][9][8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6][5][4][3][2][1][0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[13][12][11][10][9][8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[7][6][5][4][3][2][1][0]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14]</t>
     </r>
     <r>
       <rPr>
@@ -820,7 +1543,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>[9][8]</t>
+      <t>[11][10][9][8]</t>
     </r>
     <r>
       <rPr>
@@ -835,7 +1558,24 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14][13][12]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16][15][14]</t>
     </r>
     <r>
       <rPr>
@@ -854,7 +1594,7 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>[9][8]</t>
+      <t>[11][10][9][8]</t>
     </r>
     <r>
       <rPr>
@@ -869,26 +1609,43 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[11][10][9][8]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[13][12][11][10][9][8]</t>
     </r>
     <r>
       <rPr>
@@ -903,26 +1660,43 @@
   </si>
   <si>
     <r>
-      <t>[17][16][15][14]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[11][10][9][8]</t>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[16]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>[13][12][11][10][9][8]</t>
     </r>
     <r>
       <rPr>
@@ -934,508 +1708,6 @@
       </rPr>
       <t>[7][6][5][4][3][2][1][0]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16][15][14]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[11][10][9][8]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6][5][4][3][2][1][0]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16][15][14]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[11][10][9][8]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6][5][4][3][2][1][0]</t>
-    </r>
-  </si>
-  <si>
-    <t>ШД&lt;-Рег. W</t>
-  </si>
-  <si>
-    <t>Рег. W&lt;-ШД</t>
-  </si>
-  <si>
-    <t>ШД&lt;-Рег. Z</t>
-  </si>
-  <si>
-    <t>Рег. Z&lt;-ШД</t>
-  </si>
-  <si>
-    <r>
-      <t>[17][16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[13][12][11][10][9][8]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6][5][4][3][2][1][0]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[13][12][11][10][9][8]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6][5][4][3][2][1][0]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[13][12][11][10][9][8]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6][5][4][3][2][1][0]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[13][12][11][10][9][8]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6][5][4][3][2][1][0]</t>
-    </r>
-  </si>
-  <si>
-    <t>Ук.Стэка&lt;-ШД</t>
-  </si>
-  <si>
-    <t>ШД&lt;-Ук.Стэка</t>
-  </si>
-  <si>
-    <t>Сч. Ком++</t>
-  </si>
-  <si>
-    <t>Рег. Адр&lt;-Сч. Ком</t>
-  </si>
-  <si>
-    <t>Код F1</t>
-  </si>
-  <si>
-    <t>Код ControlBus</t>
-  </si>
-  <si>
-    <t>Рег. Адр&lt;-В+С</t>
-  </si>
-  <si>
-    <t>Рег. Адр&lt;-D+E</t>
-  </si>
-  <si>
-    <t>Рег. Адр&lt;-H+L</t>
-  </si>
-  <si>
-    <r>
-      <t>[17][16][15][14][13][12]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[5][4][3][2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16][15][14][13][12]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[5][4][3][2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    [17][16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[11][10][9][8][7][6][5][4][3][2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>Ук.Стэка&lt;-В+С</t>
-  </si>
-  <si>
-    <t>Ук.Стэка&lt;-D+E</t>
-  </si>
-  <si>
-    <t>Ук.Стэка&lt;-H+L</t>
-  </si>
-  <si>
-    <r>
-      <t>[17][16][15][14][13][12]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[5][4][3][2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[17][16][15][14][13][12]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[7][6]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[5][4][3][2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    [17][16]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>[11][10][9][8][7][6][5][4][3][2]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>11</t>
-    </r>
-  </si>
-  <si>
-    <t>Сложение с СF</t>
-  </si>
-  <si>
-    <t>Вычитание с CF</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1894,14 +2166,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1949,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
@@ -1964,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
@@ -1987,7 +2259,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
@@ -2002,7 +2274,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
@@ -2093,7 +2365,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
@@ -2121,7 +2393,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>30</v>
@@ -2152,7 +2424,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>57</v>
@@ -2160,7 +2432,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>63</v>
@@ -2173,7 +2445,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="7" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>58</v>
@@ -2181,7 +2453,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>64</v>
@@ -2193,7 +2465,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="7" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>59</v>
@@ -2201,7 +2473,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -2213,7 +2485,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="7" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>60</v>
@@ -2221,7 +2493,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>66</v>
@@ -2233,7 +2505,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>61</v>
@@ -2241,7 +2513,7 @@
     </row>
     <row r="33" spans="1:2" ht="18.75">
       <c r="A33" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>67</v>
@@ -2253,7 +2525,7 @@
     </row>
     <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>62</v>
@@ -2261,7 +2533,7 @@
     </row>
     <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>68</v>
@@ -2273,18 +2545,18 @@
     </row>
     <row r="38" spans="1:2" ht="18.75">
       <c r="A38" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75">
       <c r="A39" s="7" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2293,18 +2565,18 @@
     </row>
     <row r="41" spans="1:2" ht="18.75">
       <c r="A41" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2353,50 +2625,50 @@
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75">
       <c r="A52" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75">
       <c r="A53" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75">
       <c r="A55" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75">
       <c r="A56" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75">
       <c r="A57" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1">

--- a/Documents/КОП и КУ.xlsx
+++ b/Documents/КОП и КУ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
   <si>
     <t>00000000</t>
   </si>
@@ -75,18 +75,6 @@
     <t>00001100</t>
   </si>
   <si>
-    <t>Равно</t>
-  </si>
-  <si>
-    <t>Не равно</t>
-  </si>
-  <si>
-    <t>Меньше</t>
-  </si>
-  <si>
-    <t>Больше</t>
-  </si>
-  <si>
     <t>РК&lt;-ШД</t>
   </si>
   <si>
@@ -1708,6 +1696,12 @@
       </rPr>
       <t>[7][6][5][4][3][2][1][0]</t>
     </r>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>Сравнение</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2166,14 +2160,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -2181,22 +2175,22 @@
     </row>
     <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -2206,45 +2200,45 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="7" t="s">
@@ -2256,10 +2250,10 @@
     </row>
     <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="7" t="s">
@@ -2271,37 +2265,37 @@
     </row>
     <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
@@ -2310,28 +2304,28 @@
       <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
@@ -2341,73 +2335,73 @@
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="18.75">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="10"/>
@@ -2424,18 +2418,18 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -2445,18 +2439,18 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2465,18 +2459,18 @@
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2485,18 +2479,18 @@
     </row>
     <row r="29" spans="1:5" ht="18.75">
       <c r="A29" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75">
       <c r="A30" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2505,18 +2499,18 @@
     </row>
     <row r="32" spans="1:5" ht="18.75">
       <c r="A32" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75">
       <c r="A33" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2525,18 +2519,18 @@
     </row>
     <row r="35" spans="1:2" ht="18.75">
       <c r="A35" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75">
       <c r="A36" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2545,18 +2539,18 @@
     </row>
     <row r="38" spans="1:2" ht="18.75">
       <c r="A38" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75">
       <c r="A39" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2565,18 +2559,18 @@
     </row>
     <row r="41" spans="1:2" ht="18.75">
       <c r="A41" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75">
       <c r="A42" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2585,18 +2579,18 @@
     </row>
     <row r="44" spans="1:2" ht="18.75">
       <c r="A44" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75">
       <c r="A45" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2609,10 +2603,10 @@
     </row>
     <row r="48" spans="1:2" ht="18.75">
       <c r="A48" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2625,50 +2619,50 @@
     </row>
     <row r="51" spans="1:2" ht="18.75">
       <c r="A51" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75">
       <c r="A52" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75">
       <c r="A53" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75">
       <c r="A55" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75">
       <c r="A56" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75">
       <c r="A57" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1">
